--- a/Lotes.xlsx
+++ b/Lotes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Copasa Leiloes-1</t>
+          <t>Rogerio Lopes Ferreira-6691</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12/04/2021</t>
+          <t>20/03/2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,12 +470,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Copasa Leiloes-1</t>
+          <t>Sergio Villa Nova de Freitas-5813</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19/04/2021</t>
+          <t>31/03/2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,46 +487,46 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Copasa Leiloes-3</t>
+          <t>Detran MG-485</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>30/06/2021</t>
+          <t>03/04/2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Copasa Leiloes-3</t>
+          <t>Luiz Balbino da Silva-39832</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>06/07/2021</t>
+          <t>03/04/2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Copasa Leiloes-5</t>
+          <t>Detran BA-8997</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>19/08/2021</t>
+          <t>04/04/2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -538,12 +538,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Copasa Leiloes-5</t>
+          <t>Detran BA-8999</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>25/08/2021</t>
+          <t>04/04/2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -555,12 +555,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jose Eduardo de Abreu Sodre Santoro-23451</t>
+          <t>Detran BA-9001</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>31/01/2023</t>
+          <t>04/04/2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -572,12 +572,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jose Eduardo de Abreu Sodre Santoro-23452</t>
+          <t>Conceicao Maria Fixer-39751</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>31/01/2023</t>
+          <t>05/04/2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -589,12 +589,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Paulo Eduardo Lopes Rodrigues de Souza-1607</t>
+          <t>Jose Eduardo de Abreu Sodre Santoro-23730</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>02/02/2023</t>
+          <t>05/04/2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -606,29 +606,29 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sandra de Fatima Santos-141</t>
+          <t>Kleiber Leite Pereira Junior-73</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>02/02/2023</t>
+          <t>05/04/2023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Joao Emilio de Oliveira Filho-3270</t>
+          <t>Rodrigo Aparecido Rigolon da Silva-39827</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>03/02/2023</t>
+          <t>05/04/2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -640,63 +640,63 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Joao Emilio de Oliveira Filho-3336</t>
+          <t>Sergio Luis Represas Cardoso-80</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>03/02/2023</t>
+          <t>05/04/2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Joao Emilio de Oliveira Filho-3344</t>
+          <t>Sergio Villa Nova de Freitas-5823</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>03/02/2023</t>
+          <t>05/04/2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>247</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Joao Emilio de Oliveira Filho-3367</t>
+          <t>Ugo Filho Rossi-2373</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>03/02/2023</t>
+          <t>05/04/2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jose Eduardo de Abreu Sodre Santoro-23454</t>
+          <t>Antonio Luiz Guariglia-421</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>03/02/2023</t>
+          <t>06/04/2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -708,29 +708,29 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Josecelli Kildare Fraga Gomes-2314</t>
+          <t>Eduardo da Silva Pinto-7462</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>03/02/2023</t>
+          <t>06/04/2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Luiz Fernando de Abreu Sodre Santoro-23449</t>
+          <t>Leilo Master-3168</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>03/02/2023</t>
+          <t>06/04/2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -742,51 +742,102 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Andre Cencin-7361</t>
+          <t>Luiz Fernando de Abreu Sodre Santoro-23726</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>07/02/2023</t>
+          <t>06/04/2023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Carla Sobreira Umino-390</t>
+          <t>Vicente Paulo Albuquerque-BSMA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>07/02/2023</t>
+          <t>06/04/2023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Daniel dos Santos Oliveira-3758</t>
+          <t>Wendell Felix-7482</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>07/02/2023</t>
+          <t>06/04/2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>221</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Luiz Fernando de Abreu Sodre Santoro-23753</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>08/04/2023</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Alexandre Almeida de Souza e Silva-393</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Rogerio Lopes Ferreira-6714</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
